--- a/biology/Botanique/Jardin_botanique_de_Lyon/Jardin_botanique_de_Lyon.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Lyon/Jardin_botanique_de_Lyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Lyon est un jardin botanique qui s'étend, au sein du parc de la Tête d'or, sur 8 hectares dont 6 500 m2 de serres. Ses collections comprennent 15 000 taxons.
@@ -512,7 +524,9 @@
           <t>Le jardin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(Serres : voir Parc de la Tête d'or - Serres).
 À part les serres situées hors de ses enceintes, le jardin botanique comporte deux enclos séparés jointifs : 
@@ -558,24 +572,61 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'histoire du jardin botanique de Lyon commence en 1796 avec Poullain-Grandprey, quand, par décision de l'Administration centrale du département du Rhône, le jardin du couvent de la Déserte sur les pentes de la colline de la Croix-Rousse s'ouvre en jardin botanique. 
-Le 9 juin 1803, ce Jardin des Plantes devient municipal et en 1805, 4 000 plantes dites indigènes et exotiques y sont cultivées[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire du jardin botanique de Lyon commence en 1796 avec Poullain-Grandprey, quand, par décision de l'Administration centrale du département du Rhône, le jardin du couvent de la Déserte sur les pentes de la colline de la Croix-Rousse s'ouvre en jardin botanique. 
+Le 9 juin 1803, ce Jardin des Plantes devient municipal et en 1805, 4 000 plantes dites indigènes et exotiques y sont cultivées.
 Sa fondation, sa direction et sa conception botanique revient à Jean-Emmanuel Gilibert (1741-1814), botaniste de renom et docteur en médecine.
 La réalisation proprement dite du Jardin botanique de la Ville de Lyon ne s'édifia qu'à partir de 1857, et dans le projet d'espace public du futur parc de la Tête-d'or de la Ville de Lyon.
 Le futur parc public se dessina alors sur un arpent de 105 hectares, aux abords du Rhône. Sa conception s'articulait autour d'un projet d'ombre et de lumière, et d'eau, d'aires de promenade.
 Après l'acquisition du parc de la Tête d'or par la ville de Lyon en 1856 à l'instigation du sénateur-maire de l'époque, le préfet Claude-Marius Vaïsse, son histoire se confond avec celle de ce parc. Il faudra cinq années de travaux pour aménager ce vaste terrain marécageux de 117 ha qui appartenait aux Hospices Civils de Lyon. Les plans furent confiés au paysagiste Denis Bühler.
-Les collections du jardin botanique grandissent alors rapidement et s'étendent aux flores tropicales et équatoriales avec l'installation des grandes serres entre 1860 et 1880[2].
+Les collections du jardin botanique grandissent alors rapidement et s'étendent aux flores tropicales et équatoriales avec l'installation des grandes serres entre 1860 et 1880.
 Ses missions sont éducation, conservation et recherche. Pour cela, il est prévu une école de botanique, des bâches et des serres de différentes températures dont certaines seront assez spacieuses pour y recevoir le public, une orangerie et des bâtiments de service pour le logement du directeur et du jardinier-chef et pour placer les collections botaniques, un amphithéâtre pour les cours de botanique, de culture et d’arboriculture. Il est aussi prévu « une école des meilleures espèces d’arbres fruitiers qui peuvent se cultivés sous le climat de Lyon et devant servir d’école de taille ainsi qu’à la propagation des meilleurs fruits par la distribution des greffes aux habitants du département », une pépinière modèle devant servir à produire les arbres nécessaires aux plantations des promenades de la ville, un arboretum composé de tous les arbres forestiers et d’agrément qui peuvent croître sous le climat de Lyon  ainsi qu'une école expérimentale pour les graminées, les plantes potagères, textiles, tinctoriales, oléagineuses, d’agrément, fourragères et pharmaceutiques, une collection de vignes et de mûriers sans oublier un jardin fleuriste pour les plantes d’ornement. 
 Le 15 décembre 1859, l’ingénieur Bonnet fixe la surface des emplacements affectés aux diverses collections dépendant du Jardin botanique : école générale de botanique, école médicinale, école des rosiers, collection des céréales, collection des plantes vivaces, collection des plantes annuelles, collection des dahlias, arbres fruitiers, arboretum, arbusterie.
-L’École de botanique devait mesurer 5 467 mètres carrés, les collections directement rattachées, 3 968 mètres carrésExtrait[2]
+L’École de botanique devait mesurer 5 467 mètres carrés, les collections directement rattachées, 3 968 mètres carrésExtrait
 			Grandes serres au jardin botanique de Lyon
 			La serre Victoria et ses nénuphars d'Amazonie
 			Jardin alpin (jardin de rocaille) du jardin botanique de Lyon.
 			Jardin mexicain du jardin botanique de Lyon.
-Histoire de l'Orangerie
-Une orangerie était déjà prévue dans le projet du jardin des plantes énoncée le 3 fructidor an IV (20/08/1796) par l’administration centrale du département du Rhône, afin de faire hiverner en hors gel les plantes un peu frileuses. Il était initialement prévu d’acquérir les bâtiments contigus à l’enclos de la Déserte pour installer cette orangerie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histoire de l'Orangerie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une orangerie était déjà prévue dans le projet du jardin des plantes énoncée le 3 fructidor an IV (20/08/1796) par l’administration centrale du département du Rhône, afin de faire hiverner en hors gel les plantes un peu frileuses. Il était initialement prévu d’acquérir les bâtiments contigus à l’enclos de la Déserte pour installer cette orangerie. 
 Jusqu’en 1819 cette orangerie « aménagée » était donc située sur la gauche après l’entrée du jardin, en bordure de la montée des Carmélites (9). 
 Le bâtiment, bien qu’il soit exposé à l’est, ne convenait pas parfaitement pour l’usage qui lui avait été attribué.
 C’est en 1819-1820 que fut construite la véritable orangerie, plus adaptée à l’hivernage des plantes grâce à ses vitrages, au même emplacement. 
@@ -605,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste des directeurs du Jardin Botanique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jean-Emmanuel Gilibert (1796 - 1808)
 Gaetano Nicodemi (1803 - 1804)
@@ -654,31 +707,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Les collections vivantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Réparties dans les serres ou dans l'espace de plein-air, les collections de plantes sont, pour la plupart, accessibles aux visiteurs. Les quelques collections remarquables sont :
 Rosiers
@@ -694,31 +749,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>L'herbier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, pour connaître et classifier les plantes du monde entier, les chercheurs combinent les études moléculaires et la taxonomie botanique. L'étude des échantillons séchés conservés en herbier est donc encore tout à fait utile. Ainsi, les botanistes travaillant sur l'herbier du jardin botanique de Lyon contribuent à apporter des connaissances sur les plantes et à découvrir de nouvelles espèces (45 nouveaux types nomenclaturaux pour 2007). 
 L'herbier occupe une surface de 60 m2 et comprend environ 213 000 spécimens conservés. Il est essentiellement composé de phanérogames et de ptéridophytes mais la collection comprend également des herbiers de mousses, de lichens, d’algues et de champignons. Ces échantillons ont été collectés depuis le XVIIe siècle, principalement dans la région lyonnaise, mais aussi dans des régions plus lointaines comme la Nouvelle-Calédonie ou la Guyane Française. 
@@ -726,31 +783,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>La bibliothèque</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La mission de la bibliothèque est d'offrir aux chercheurs et aux spécialistes ainsi qu'à un plus large public, un accès facile aux documents botaniques et à l'ensemble des informations qu'ils contiennent. 
 Le fonds de la bibliothèque du Jardin Botanique est estimé à plus de 6 000 ouvrages, en comptant les bulletins et journaux périodiques. L'inventaire informatisé qui vient d'être achevé a permis de recenser plus de 4 500 ouvrages monographiques, dont plus de 500 documents anciens (près de 200 d'entre eux sont antérieurs au XVIIIe siècle). 
@@ -759,31 +818,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Lyon</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Graineterie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rôle de la graineterie est de récupérer des graines dans la nature ou au jardin pour maintenir les plantes en collection (sauvegarde des plantes parfois très rares ou en voie d’extinction). Les jardins du monde, pour peaufiner leur collection, s’échangent leurs graines, qu’ils ont en stock, contre d’autres qu’ils n'ont pas. Il y aurait plus de 450 graineteries dans le monde. La graineterie du parc de la Tête d’Or stocke plus de 5 000 espèces de graines, vivaces ou annuelles. Les grainetiers estiment que les graines, au bout de deux années, perdent de leur capacité à pousser lors de leur plantation ; c’est pour cela que dans chaque casier il y a deux compartiments : l’un où l’on met les graines récoltées l’année même, l’autre de l’année d’avant ; et chaque année les graines les plus vieilles sont remplacées.
 </t>
